--- a/Duolingo.xlsx
+++ b/Duolingo.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
+    <sheet name="Grammar" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>你好</t>
   </si>
@@ -58,12 +59,267 @@
       <t xml:space="preserve"> hǎo</t>
     </r>
   </si>
+  <si>
+    <t>零</t>
+  </si>
+  <si>
+    <t>líng</t>
+  </si>
+  <si>
+    <t>yī</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一 </t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>èr</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>sān</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>sì</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>wǔ</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>liù</t>
+  </si>
+  <si>
+    <t>七</t>
+  </si>
+  <si>
+    <t>qī</t>
+  </si>
+  <si>
+    <t>八</t>
+  </si>
+  <si>
+    <t>bā</t>
+  </si>
+  <si>
+    <t>九</t>
+  </si>
+  <si>
+    <t>jiǔ</t>
+  </si>
+  <si>
+    <t>十</t>
+  </si>
+  <si>
+    <t>shí</t>
+  </si>
+  <si>
+    <t>百</t>
+  </si>
+  <si>
+    <t>bǎi</t>
+  </si>
+  <si>
+    <t>yuán</t>
+  </si>
+  <si>
+    <t>Yuan</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¥40 </t>
+  </si>
+  <si>
+    <t>¥~</t>
+  </si>
+  <si>
+    <t>四十元</t>
+  </si>
+  <si>
+    <t>sìshí yuán</t>
+  </si>
+  <si>
+    <t>Tones</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <r>
+      <t>妈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF5F5F5F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF1CB0F6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF5F5F5F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <r>
+      <t>麻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF5F5F5F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF1CB0F6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>á</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF5F5F5F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <r>
+      <t>马</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF5F5F5F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF1CB0F6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ǎ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF5F5F5F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <r>
+      <t>骂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF5F5F5F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF1CB0F6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>à</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF5F5F5F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Hemp</t>
+  </si>
+  <si>
+    <t>Horse</t>
+  </si>
+  <si>
+    <t>to curse / scold</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,16 +339,44 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF5F5F5F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF1CB0F6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -100,13 +384,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCFCFCF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCFCFCF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCFCFCF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCFCFCF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCFCFCF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,6 +441,231 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="4867275"/>
+          <a:ext cx="628650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Connector 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4895850" y="4467225"/>
+          <a:ext cx="609600" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="4438650"/>
+          <a:ext cx="638175" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Connector 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6143625" y="4467225"/>
+          <a:ext cx="571500" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Connector 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="4438650"/>
+          <a:ext cx="609600" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,7 +933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="A5:C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -433,4 +979,248 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" s="6">
+        <v>3</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J23:K23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>